--- a/results/finreport/retrieval_results.xlsx
+++ b/results/finreport/retrieval_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,12 +493,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>single</t>
+          <t>MULTI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -507,80 +507,80 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4464270557364816</v>
+        <v>0.4465971911543201</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4048134780277992</v>
+        <v>0.4171497302500493</v>
       </c>
       <c r="F2" t="n">
-        <v>0.391852286049238</v>
+        <v>0.3992379835873388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4033043566938306</v>
+        <v>0.415170513079663</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1221570926143025</v>
+        <v>0.1177022274325908</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09751442583987881</v>
+        <v>0.09842068453290105</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6107854630715123</v>
+        <v>0.5885111371629543</v>
       </c>
       <c r="K2" t="n">
-        <v>0.487572129199394</v>
+        <v>0.4921034226645052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>single</t>
+          <t>MULTI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4849092355954718</v>
+        <v>0.5466630064721092</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4048433884899747</v>
+        <v>0.413980440526053</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4289761625635014</v>
+        <v>0.4968737788198515</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4077912484476651</v>
+        <v>0.4242241492256216</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1305978898007034</v>
+        <v>0.1392731535756155</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09520382943844229</v>
+        <v>0.09196531633298567</v>
       </c>
       <c r="J3" t="n">
-        <v>0.652989449003517</v>
+        <v>0.6963657678780774</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4760191471922114</v>
+        <v>0.4598265816649284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>single</t>
+          <t>MULTI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -589,69 +589,69 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.43804511515938</v>
+        <v>0.4005685230063518</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4072808319882251</v>
+        <v>0.4188749459041312</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3854044548651817</v>
+        <v>0.3583626416568972</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4048998237684183</v>
+        <v>0.4133704111755389</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1193434935521688</v>
+        <v>0.1055099648300117</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09811131054673158</v>
+        <v>0.09984808604861704</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5967174677608441</v>
+        <v>0.5275498241500586</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4905565527336579</v>
+        <v>0.4992404302430853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>single</t>
+          <t>MULTI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5279948204206211</v>
+        <v>0.4996558335422993</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4015479355443623</v>
+        <v>0.414053086037006</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4713169206721375</v>
+        <v>0.4488862837045721</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4092511653479738</v>
+        <v>0.4179932734792735</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1395076201641266</v>
+        <v>0.1303634232121922</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09186483521439036</v>
+        <v>0.09527886717860003</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6975381008206331</v>
+        <v>0.6518171160609613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4593241760719518</v>
+        <v>0.4763943358930001</v>
       </c>
     </row>
   </sheetData>

--- a/results/finreport/retrieval_results.xlsx
+++ b/results/finreport/retrieval_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,32 +585,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rephrase_level_3.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4005685230063518</v>
+        <v>0.4996558335422993</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4188749459041312</v>
+        <v>0.414053086037006</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3583626416568972</v>
+        <v>0.4488862837045721</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4133704111755389</v>
+        <v>0.4179932734792735</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1055099648300117</v>
+        <v>0.1303634232121922</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09984808604861704</v>
+        <v>0.09527886717860003</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5275498241500586</v>
+        <v>0.6518171160609613</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4992404302430853</v>
+        <v>0.4763943358930001</v>
       </c>
     </row>
     <row r="5">
@@ -626,32 +626,360 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>rephrase_level_3.json</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4005685230063518</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4188749459041312</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3583626416568972</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4133704111755389</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1055099648300117</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.09984808604861704</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5275498241500586</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4992404302430853</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SINGLE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>query.json</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6614691272633808</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3890705572727663</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6148886283704572</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4112751181928028</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1601406799531067</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07989429650968831</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8007033997655334</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3994714825484415</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SINGLE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>rephrase_level_1.json</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0.4996558335422993</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.414053086037006</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4488862837045721</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4179932734792735</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1303634232121922</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.09527886717860003</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6518171160609613</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4763943358930001</v>
+      <c r="D7" t="n">
+        <v>0.5878529940521255</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4153303871916709</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5426924579914029</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4286487468721207</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1446658851113716</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.08947043482188824</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7233294255568582</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4473521741094412</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SINGLE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>rephrase_level_2.json</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5200035815386537</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4204026847688249</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4723915592028136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4275154114019719</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1327080890973036</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.09449963443105401</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6635404454865181</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4724981721552701</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SINGLE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>rephrase_level_3.json</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4755403749683494</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4262122222447708</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4311449785072294</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4285823719001656</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1219226260257913</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.09756740474222576</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6096131301289566</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4878370237111287</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>rephrase_level_1.json</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6845390332544333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3657024725564655</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6324931613911684</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3930533774454735</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1678780773739742</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.07343409706677662</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.839390386869871</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3671704853338831</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>query.json</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7424494872602323</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3308394111792814</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6911098085189527</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.367682302299388</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1788980070339976</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.06144187892686272</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8944900351699883</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3072093946343136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>rephrase_level_3.json</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.564959915016396</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4069636336694986</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5127393513091051</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4200296626111396</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1444314185228605</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.089587103134583</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7221570926143025</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.447935515672915</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>rephrase_level_2.json</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6053250121280632</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4001813015523091</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.554611176240719</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4169329769283889</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1514654161781946</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.08573978619990387</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.757327080890973</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4286989309995194</v>
       </c>
     </row>
   </sheetData>

--- a/results/finreport/retrieval_results.xlsx
+++ b/results/finreport/retrieval_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,37 +498,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rephrase_level_2.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4465971911543201</v>
+        <v>0.483264622827314</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4171497302500493</v>
+        <v>0.4053458195468319</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3992379835873388</v>
+        <v>0.4275693630324345</v>
       </c>
       <c r="G2" t="n">
-        <v>0.415170513079663</v>
+        <v>0.4081928396427011</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1177022274325908</v>
+        <v>0.1301289566236811</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09842068453290105</v>
+        <v>0.09535326933445094</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5885111371629543</v>
+        <v>0.6506447831184057</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4921034226645052</v>
+        <v>0.4767663466722548</v>
       </c>
     </row>
     <row r="3">
@@ -539,37 +539,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_2.json</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5466630064721092</v>
+        <v>0.4457243116744947</v>
       </c>
       <c r="E3" t="n">
-        <v>0.413980440526053</v>
+        <v>0.4007911321316505</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4968737788198515</v>
+        <v>0.3895662368112544</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4242241492256216</v>
+        <v>0.3980076498028974</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1392731535756155</v>
+        <v>0.1228604923798359</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09196531633298567</v>
+        <v>0.09735192801455687</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6963657678780774</v>
+        <v>0.6143024618991794</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4598265816649284</v>
+        <v>0.4867596400727844</v>
       </c>
     </row>
     <row r="4">
@@ -580,37 +580,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4996558335422993</v>
+        <v>0.5292248234462695</v>
       </c>
       <c r="E4" t="n">
-        <v>0.414053086037006</v>
+        <v>0.4041985354118329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4488862837045721</v>
+        <v>0.4740719030871434</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4179932734792735</v>
+        <v>0.4117061518749299</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1303634232121922</v>
+        <v>0.1388042203985932</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09527886717860003</v>
+        <v>0.09216416049233783</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6518171160609613</v>
+        <v>0.694021101992966</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4763943358930001</v>
+        <v>0.4608208024616891</v>
       </c>
     </row>
     <row r="5">
@@ -621,7 +621,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,28 +630,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4005685230063518</v>
+        <v>0.4329494019892411</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4188749459041312</v>
+        <v>0.4051499956849923</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3583626416568972</v>
+        <v>0.3794255568581477</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4133704111755389</v>
+        <v>0.4023423288412565</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1055099648300117</v>
+        <v>0.1188745603751465</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09984808604861704</v>
+        <v>0.09820260164906504</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5275498241500586</v>
+        <v>0.5943728018757327</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4992404302430853</v>
+        <v>0.4910130082453251</v>
       </c>
     </row>
     <row r="6">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6614691272633808</v>
+        <v>0.6614087041905548</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3890705572727663</v>
+        <v>0.3891479758553392</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6148886283704572</v>
+        <v>0.6148300117233295</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4112751181928028</v>
+        <v>0.4113900515846598</v>
       </c>
       <c r="H6" t="n">
         <v>0.1601406799531067</v>
@@ -708,32 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>rephrase_level_2.json</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5878529940521255</v>
+        <v>0.5206314421736032</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4153303871916709</v>
+        <v>0.4201071669821873</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5426924579914029</v>
+        <v>0.4728604923798359</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4286487468721207</v>
+        <v>0.4273351640079781</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1446658851113716</v>
+        <v>0.1329425556858148</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08947043482188824</v>
+        <v>0.09441815516566184</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7233294255568582</v>
+        <v>0.6647127784290738</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4473521741094412</v>
+        <v>0.4720907758283092</v>
       </c>
     </row>
     <row r="8">
@@ -749,32 +749,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>rephrase_level_2.json</t>
+          <t>rephrase_level_3.json</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5200035815386537</v>
+        <v>0.475919584603505</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4204026847688249</v>
+        <v>0.4256230999403366</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4723915592028136</v>
+        <v>0.431242672919109</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4275154114019719</v>
+        <v>0.4279232036133882</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1327080890973036</v>
+        <v>0.1221570926143025</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09449963443105401</v>
+        <v>0.09751442583987881</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6635404454865181</v>
+        <v>0.6107854630715123</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4724981721552701</v>
+        <v>0.487572129199394</v>
       </c>
     </row>
     <row r="9">
@@ -790,38 +790,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>rephrase_level_3.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4755403749683494</v>
+        <v>0.5876363247262937</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4262122222447708</v>
+        <v>0.4159883746723037</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4311449785072294</v>
+        <v>0.5427901524032825</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4285823719001656</v>
+        <v>0.429217905360528</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1219226260257913</v>
+        <v>0.1444314185228605</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09756740474222576</v>
+        <v>0.08958710313458298</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6096131301289566</v>
+        <v>0.7221570926143025</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4878370237111287</v>
+        <v>0.447935515672915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MULTIMODAL</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -835,34 +835,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6845390332544333</v>
+        <v>0.4996558335422993</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3657024725564655</v>
+        <v>0.414053086037006</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6324931613911684</v>
+        <v>0.4488862837045721</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3930533774454735</v>
+        <v>0.4179932734792735</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1678780773739742</v>
+        <v>0.1303634232121922</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07343409706677662</v>
+        <v>0.09527886717860003</v>
       </c>
       <c r="J10" t="n">
-        <v>0.839390386869871</v>
+        <v>0.6518171160609613</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3671704853338831</v>
+        <v>0.4763943358930001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MULTIMODAL</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -876,34 +876,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7424494872602323</v>
+        <v>0.5466630064721092</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3308394111792814</v>
+        <v>0.413980440526053</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6911098085189527</v>
+        <v>0.4968737788198515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.367682302299388</v>
+        <v>0.4242241492256216</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1788980070339976</v>
+        <v>0.1392731535756155</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06144187892686272</v>
+        <v>0.09196531633298567</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8944900351699883</v>
+        <v>0.6963657678780774</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3072093946343136</v>
+        <v>0.4598265816649284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MULTIMODAL</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -917,68 +917,232 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.564959915016396</v>
+        <v>0.4005685230063518</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4069636336694986</v>
+        <v>0.4188749459041312</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5127393513091051</v>
+        <v>0.3583626416568972</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4200296626111396</v>
+        <v>0.4133704111755389</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1444314185228605</v>
+        <v>0.1055099648300117</v>
       </c>
       <c r="I12" t="n">
-        <v>0.089587103134583</v>
+        <v>0.09984808604861704</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7221570926143025</v>
+        <v>0.5275498241500586</v>
       </c>
       <c r="K12" t="n">
-        <v>0.447935515672915</v>
+        <v>0.4992404302430853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>rephrase_level_2.json</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4465971911543201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4171497302500493</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3992379835873388</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.415170513079663</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1177022274325908</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.09842068453290105</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5885111371629543</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4921034226645052</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>MULTIMODAL</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>MULTI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>rephrase_level_1.json</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6845390332544333</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3657024725564655</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6324931613911684</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3930533774454735</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1678780773739742</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.07343409706677662</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.839390386869871</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3671704853338831</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>query.json</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7424494872602323</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3308394111792814</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6911098085189527</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.367682302299388</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1788980070339976</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.06144187892686272</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8944900351699883</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3072093946343136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>rephrase_level_3.json</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.564959915016396</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4069636336694986</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5127393513091051</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4200296626111396</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1444314185228605</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.089587103134583</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7221570926143025</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.447935515672915</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>rephrase_level_2.json</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>0.6053250121280632</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E17" t="n">
         <v>0.4001813015523091</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F17" t="n">
         <v>0.554611176240719</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G17" t="n">
         <v>0.4169329769283889</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>0.1514654161781946</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>0.08573978619990387</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J17" t="n">
         <v>0.757327080890973</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K17" t="n">
         <v>0.4286989309995194</v>
       </c>
     </row>

--- a/results/finreport/retrieval_results.xlsx
+++ b/results/finreport/retrieval_results.xlsx
@@ -503,32 +503,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>rephrase_level_3.json</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.483264622827314</v>
+        <v>0.4329494019892411</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4053458195468319</v>
+        <v>0.4051499956849923</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4275693630324345</v>
+        <v>0.3794255568581477</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4081928396427011</v>
+        <v>0.4023423288412565</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1301289566236811</v>
+        <v>0.1188745603751465</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09535326933445094</v>
+        <v>0.09820260164906504</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6506447831184057</v>
+        <v>0.5943728018757327</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4767663466722548</v>
+        <v>0.4910130082453251</v>
       </c>
     </row>
     <row r="3">
@@ -544,32 +544,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rephrase_level_2.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4457243116744947</v>
+        <v>0.5292248234462695</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4007911321316505</v>
+        <v>0.4041985354118329</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3895662368112544</v>
+        <v>0.4740719030871434</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3980076498028974</v>
+        <v>0.4117061518749299</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1228604923798359</v>
+        <v>0.1388042203985932</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09735192801455687</v>
+        <v>0.09216416049233783</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6143024618991794</v>
+        <v>0.694021101992966</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4867596400727844</v>
+        <v>0.4608208024616891</v>
       </c>
     </row>
     <row r="4">
@@ -585,32 +585,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_2.json</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5292248234462695</v>
+        <v>0.4457243116744947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4041985354118329</v>
+        <v>0.4007911321316505</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4740719030871434</v>
+        <v>0.3895662368112544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4117061518749299</v>
+        <v>0.3980076498028974</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1388042203985932</v>
+        <v>0.1228604923798359</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09216416049233783</v>
+        <v>0.09735192801455687</v>
       </c>
       <c r="J4" t="n">
-        <v>0.694021101992966</v>
+        <v>0.6143024618991794</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4608208024616891</v>
+        <v>0.4867596400727844</v>
       </c>
     </row>
     <row r="5">
@@ -626,32 +626,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rephrase_level_3.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4329494019892411</v>
+        <v>0.483264622827314</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4051499956849923</v>
+        <v>0.4053458195468319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3794255568581477</v>
+        <v>0.4275693630324345</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4023423288412565</v>
+        <v>0.4081928396427011</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1188745603751465</v>
+        <v>0.1301289566236811</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09820260164906504</v>
+        <v>0.09535326933445094</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5943728018757327</v>
+        <v>0.6506447831184057</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4910130082453251</v>
+        <v>0.4767663466722548</v>
       </c>
     </row>
     <row r="6">
@@ -667,32 +667,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_3.json</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6614087041905548</v>
+        <v>0.475919584603505</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3891479758553392</v>
+        <v>0.4256230999403366</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6148300117233295</v>
+        <v>0.431242672919109</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4113900515846598</v>
+        <v>0.4279232036133882</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1601406799531067</v>
+        <v>0.1221570926143025</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07989429650968831</v>
+        <v>0.09751442583987881</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8007033997655334</v>
+        <v>0.6107854630715123</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3994714825484415</v>
+        <v>0.487572129199394</v>
       </c>
     </row>
     <row r="7">
@@ -749,32 +749,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>rephrase_level_3.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.475919584603505</v>
+        <v>0.5876363247262937</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4256230999403366</v>
+        <v>0.4159883746723037</v>
       </c>
       <c r="F8" t="n">
-        <v>0.431242672919109</v>
+        <v>0.5427901524032825</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4279232036133882</v>
+        <v>0.429217905360528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1221570926143025</v>
+        <v>0.1444314185228605</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09751442583987881</v>
+        <v>0.08958710313458298</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6107854630715123</v>
+        <v>0.7221570926143025</v>
       </c>
       <c r="K8" t="n">
-        <v>0.487572129199394</v>
+        <v>0.447935515672915</v>
       </c>
     </row>
     <row r="9">
@@ -790,32 +790,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5876363247262937</v>
+        <v>0.6614087041905548</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4159883746723037</v>
+        <v>0.3891479758553392</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5427901524032825</v>
+        <v>0.6148300117233295</v>
       </c>
       <c r="G9" t="n">
-        <v>0.429217905360528</v>
+        <v>0.4113900515846598</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1444314185228605</v>
+        <v>0.1601406799531067</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08958710313458298</v>
+        <v>0.07989429650968831</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7221570926143025</v>
+        <v>0.8007033997655334</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447935515672915</v>
+        <v>0.3994714825484415</v>
       </c>
     </row>
     <row r="10">
@@ -872,32 +872,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_3.json</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5466630064721092</v>
+        <v>0.4005685230063518</v>
       </c>
       <c r="E11" t="n">
-        <v>0.413980440526053</v>
+        <v>0.4188749459041312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4968737788198515</v>
+        <v>0.3583626416568972</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4242241492256216</v>
+        <v>0.4133704111755389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1392731535756155</v>
+        <v>0.1055099648300117</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09196531633298567</v>
+        <v>0.09984808604861704</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6963657678780774</v>
+        <v>0.5275498241500586</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4598265816649284</v>
+        <v>0.4992404302430853</v>
       </c>
     </row>
     <row r="12">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>rephrase_level_3.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.4005685230063518</v>
+        <v>0.5466630064721092</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4188749459041312</v>
+        <v>0.413980440526053</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3583626416568972</v>
+        <v>0.4968737788198515</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4133704111755389</v>
+        <v>0.4242241492256216</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1055099648300117</v>
+        <v>0.1392731535756155</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09984808604861704</v>
+        <v>0.09196531633298567</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5275498241500586</v>
+        <v>0.6963657678780774</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4992404302430853</v>
+        <v>0.4598265816649284</v>
       </c>
     </row>
     <row r="13">
@@ -995,32 +995,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6845390332544333</v>
+        <v>0.7424494872602323</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3657024725564655</v>
+        <v>0.3308394111792814</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6324931613911684</v>
+        <v>0.6911098085189527</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3930533774454735</v>
+        <v>0.367682302299388</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1678780773739742</v>
+        <v>0.1788980070339976</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07343409706677662</v>
+        <v>0.06144187892686272</v>
       </c>
       <c r="J14" t="n">
-        <v>0.839390386869871</v>
+        <v>0.8944900351699883</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3671704853338831</v>
+        <v>0.3072093946343136</v>
       </c>
     </row>
     <row r="15">
@@ -1036,32 +1036,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.7424494872602323</v>
+        <v>0.6845390332544333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3308394111792814</v>
+        <v>0.3657024725564655</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6911098085189527</v>
+        <v>0.6324931613911684</v>
       </c>
       <c r="G15" t="n">
-        <v>0.367682302299388</v>
+        <v>0.3930533774454735</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1788980070339976</v>
+        <v>0.1678780773739742</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06144187892686272</v>
+        <v>0.07343409706677662</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8944900351699883</v>
+        <v>0.839390386869871</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3072093946343136</v>
+        <v>0.3671704853338831</v>
       </c>
     </row>
     <row r="16">
@@ -1077,32 +1077,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rephrase_level_3.json</t>
+          <t>rephrase_level_2.json</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.564959915016396</v>
+        <v>0.6053250121280632</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4069636336694986</v>
+        <v>0.4001813015523091</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5127393513091051</v>
+        <v>0.554611176240719</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4200296626111396</v>
+        <v>0.4169329769283889</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1444314185228605</v>
+        <v>0.1514654161781946</v>
       </c>
       <c r="I16" t="n">
-        <v>0.089587103134583</v>
+        <v>0.08573978619990387</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7221570926143025</v>
+        <v>0.757327080890973</v>
       </c>
       <c r="K16" t="n">
-        <v>0.447935515672915</v>
+        <v>0.4286989309995194</v>
       </c>
     </row>
     <row r="17">
@@ -1118,32 +1118,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>rephrase_level_2.json</t>
+          <t>rephrase_level_3.json</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.6053250121280632</v>
+        <v>0.564959915016396</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4001813015523091</v>
+        <v>0.4069636336694986</v>
       </c>
       <c r="F17" t="n">
-        <v>0.554611176240719</v>
+        <v>0.5127393513091051</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4169329769283889</v>
+        <v>0.4200296626111396</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1514654161781946</v>
+        <v>0.1444314185228605</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08573978619990387</v>
+        <v>0.089587103134583</v>
       </c>
       <c r="J17" t="n">
-        <v>0.757327080890973</v>
+        <v>0.7221570926143025</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4286989309995194</v>
+        <v>0.447935515672915</v>
       </c>
     </row>
   </sheetData>
